--- a/data/tables_gold/gold.sih_by_year.xlsx
+++ b/data/tables_gold/gold.sih_by_year.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>non_avoidable_disease_hosp</t>
+          <t>total_non_icsap</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>avoidable_disease_hosp</t>
+          <t>total_icsap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>tx_avoidable_disease</t>
+          <t>rate_icsap</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,17 +466,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>non_avoidable_disease_cost</t>
+          <t>non_icsap_cost</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>avoidable_disease_cost</t>
+          <t>icsap_cost</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tx_avoidable_disease_cost</t>
+          <t>rate_icsap_cost</t>
         </is>
       </c>
     </row>
@@ -485,28 +485,28 @@
         <v>2014</v>
       </c>
       <c r="B2" t="n">
-        <v>11603500</v>
+        <v>10107830</v>
       </c>
       <c r="C2" t="n">
-        <v>10535427</v>
+        <v>9039770</v>
       </c>
       <c r="D2" t="n">
-        <v>1068073</v>
+        <v>1068060</v>
       </c>
       <c r="E2" t="n">
-        <v>9.199999999999999</v>
+        <v>10.57</v>
       </c>
       <c r="F2" t="n">
-        <v>13370407625.66</v>
+        <v>12466941277.75</v>
       </c>
       <c r="G2" t="n">
-        <v>12657053903.92</v>
+        <v>11753619575.6</v>
       </c>
       <c r="H2" t="n">
-        <v>713353721.74</v>
+        <v>713321702.15</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -514,25 +514,25 @@
         <v>2015</v>
       </c>
       <c r="B3" t="n">
-        <v>11627377</v>
+        <v>10086803</v>
       </c>
       <c r="C3" t="n">
-        <v>10597282</v>
+        <v>9056736</v>
       </c>
       <c r="D3" t="n">
-        <v>1030095</v>
+        <v>1030067</v>
       </c>
       <c r="E3" t="n">
-        <v>8.859999999999999</v>
+        <v>10.21</v>
       </c>
       <c r="F3" t="n">
-        <v>13787982841.84</v>
+        <v>12853800102.36</v>
       </c>
       <c r="G3" t="n">
-        <v>13063700345.87</v>
+        <v>12129581538</v>
       </c>
       <c r="H3" t="n">
-        <v>724282495.97</v>
+        <v>724218564.36</v>
       </c>
       <c r="I3" t="n">
         <v>0.08</v>
@@ -543,25 +543,25 @@
         <v>2016</v>
       </c>
       <c r="B4" t="n">
-        <v>12264637</v>
+        <v>10080846</v>
       </c>
       <c r="C4" t="n">
-        <v>11185324</v>
+        <v>9069829</v>
       </c>
       <c r="D4" t="n">
-        <v>1079313</v>
+        <v>1011017</v>
       </c>
       <c r="E4" t="n">
-        <v>8.800000000000001</v>
+        <v>10.03</v>
       </c>
       <c r="F4" t="n">
-        <v>14891009352.83</v>
+        <v>13128495829.52</v>
       </c>
       <c r="G4" t="n">
-        <v>14095271447.4</v>
+        <v>12382493363.11</v>
       </c>
       <c r="H4" t="n">
-        <v>795737905.4299999</v>
+        <v>746002466.41</v>
       </c>
       <c r="I4" t="n">
         <v>0.08</v>
@@ -572,25 +572,25 @@
         <v>2017</v>
       </c>
       <c r="B5" t="n">
-        <v>12631413</v>
+        <v>10263047</v>
       </c>
       <c r="C5" t="n">
-        <v>11536183</v>
+        <v>9254209</v>
       </c>
       <c r="D5" t="n">
-        <v>1095230</v>
+        <v>1008838</v>
       </c>
       <c r="E5" t="n">
-        <v>8.67</v>
+        <v>9.83</v>
       </c>
       <c r="F5" t="n">
-        <v>15716982062.05</v>
+        <v>13663536653.4</v>
       </c>
       <c r="G5" t="n">
-        <v>14879362134.27</v>
+        <v>12889404970.95</v>
       </c>
       <c r="H5" t="n">
-        <v>837619927.78</v>
+        <v>774131682.45</v>
       </c>
       <c r="I5" t="n">
         <v>0.08</v>
@@ -601,28 +601,28 @@
         <v>2018</v>
       </c>
       <c r="B6" t="n">
-        <v>11977761</v>
+        <v>10565062</v>
       </c>
       <c r="C6" t="n">
-        <v>10945787</v>
+        <v>9533098</v>
       </c>
       <c r="D6" t="n">
-        <v>1031974</v>
+        <v>1031964</v>
       </c>
       <c r="E6" t="n">
-        <v>8.619999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="F6" t="n">
-        <v>15106388207.06</v>
+        <v>14242190463.88</v>
       </c>
       <c r="G6" t="n">
-        <v>14293759011.41</v>
+        <v>13429586259.96</v>
       </c>
       <c r="H6" t="n">
-        <v>812629195.65</v>
+        <v>812604203.92</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>2019</v>
       </c>
       <c r="B7" t="n">
-        <v>12327165</v>
+        <v>10952676</v>
       </c>
       <c r="C7" t="n">
-        <v>11262791</v>
+        <v>9888314</v>
       </c>
       <c r="D7" t="n">
-        <v>1064374</v>
+        <v>1064362</v>
       </c>
       <c r="E7" t="n">
-        <v>8.630000000000001</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>15816050492.89</v>
+        <v>14978043954.91</v>
       </c>
       <c r="G7" t="n">
-        <v>14942040918.57</v>
+        <v>14104063926.38</v>
       </c>
       <c r="H7" t="n">
-        <v>874009574.3200001</v>
+        <v>873980028.53</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>2020</v>
       </c>
       <c r="B8" t="n">
-        <v>10662121</v>
+        <v>9382348</v>
       </c>
       <c r="C8" t="n">
-        <v>9843346</v>
+        <v>8563590</v>
       </c>
       <c r="D8" t="n">
-        <v>818775</v>
+        <v>818758</v>
       </c>
       <c r="E8" t="n">
-        <v>7.68</v>
+        <v>8.73</v>
       </c>
       <c r="F8" t="n">
-        <v>16385522347.31</v>
+        <v>15600721335.6</v>
       </c>
       <c r="G8" t="n">
-        <v>15631873045.13</v>
+        <v>14847115881.68</v>
       </c>
       <c r="H8" t="n">
-        <v>753649302.1799999</v>
+        <v>753605453.92</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +688,25 @@
         <v>2021</v>
       </c>
       <c r="B9" t="n">
-        <v>11599312</v>
+        <v>10349540</v>
       </c>
       <c r="C9" t="n">
-        <v>10798012</v>
+        <v>9548245</v>
       </c>
       <c r="D9" t="n">
-        <v>801300</v>
+        <v>801295</v>
       </c>
       <c r="E9" t="n">
-        <v>6.91</v>
+        <v>7.74</v>
       </c>
       <c r="F9" t="n">
-        <v>22373669991.24</v>
+        <v>21598917691.29</v>
       </c>
       <c r="G9" t="n">
-        <v>21605768972.28</v>
+        <v>20831029650.92</v>
       </c>
       <c r="H9" t="n">
-        <v>767901018.96</v>
+        <v>767888040.37</v>
       </c>
       <c r="I9" t="n">
         <v>0.05</v>
@@ -717,28 +717,28 @@
         <v>2022</v>
       </c>
       <c r="B10" t="n">
-        <v>12483098</v>
+        <v>11313938</v>
       </c>
       <c r="C10" t="n">
-        <v>11494357</v>
+        <v>10325202</v>
       </c>
       <c r="D10" t="n">
-        <v>988741</v>
+        <v>988736</v>
       </c>
       <c r="E10" t="n">
-        <v>7.92</v>
+        <v>8.74</v>
       </c>
       <c r="F10" t="n">
-        <v>19075442531.22</v>
+        <v>18344613234.15</v>
       </c>
       <c r="G10" t="n">
-        <v>17999679471.44</v>
+        <v>17268863031.96</v>
       </c>
       <c r="H10" t="n">
-        <v>1075763059.78</v>
+        <v>1075750202.19</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
@@ -746,25 +746,25 @@
         <v>2023</v>
       </c>
       <c r="B11" t="n">
-        <v>13311284</v>
+        <v>12170247</v>
       </c>
       <c r="C11" t="n">
-        <v>12253299</v>
+        <v>11112266</v>
       </c>
       <c r="D11" t="n">
-        <v>1057985</v>
+        <v>1057981</v>
       </c>
       <c r="E11" t="n">
-        <v>7.95</v>
+        <v>8.69</v>
       </c>
       <c r="F11" t="n">
-        <v>20669197192.73</v>
+        <v>19945489853.01</v>
       </c>
       <c r="G11" t="n">
-        <v>19472306030.68</v>
+        <v>18748609846</v>
       </c>
       <c r="H11" t="n">
-        <v>1196891162.05</v>
+        <v>1196880007.01</v>
       </c>
       <c r="I11" t="n">
         <v>0.06</v>
@@ -775,25 +775,25 @@
         <v>2024</v>
       </c>
       <c r="B12" t="n">
-        <v>14124649</v>
+        <v>13052583</v>
       </c>
       <c r="C12" t="n">
-        <v>13021472</v>
+        <v>11949413</v>
       </c>
       <c r="D12" t="n">
-        <v>1103177</v>
+        <v>1103170</v>
       </c>
       <c r="E12" t="n">
-        <v>7.81</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>23670038557.49</v>
+        <v>22976380653.58</v>
       </c>
       <c r="G12" t="n">
-        <v>22423882634.15</v>
+        <v>21730243070.21</v>
       </c>
       <c r="H12" t="n">
-        <v>1246155923.34</v>
+        <v>1246137583.37</v>
       </c>
       <c r="I12" t="n">
         <v>0.06</v>
